--- a/Estudiantes.xlsx
+++ b/Estudiantes.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UdLA\2025-1\AES1018 - Analisis Estadistico\Catedra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFB8F0-880D-4787-B90B-DCA61B56D35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3352724C-2EC3-4A6D-84BB-351850DDE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
-    <sheet name="Descriptores" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estudiantes!$A$1:$R$1</definedName>
@@ -4309,143 +4308,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89433</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB626FE7-8419-A4D1-0926-F10490903048}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="292100" y="141564"/>
-          <a:ext cx="5480050" cy="2157669"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>431769</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>178842</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB7F075-4519-579A-1DCF-FE813EF5B37E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="380999" y="2222500"/>
-          <a:ext cx="5384770" cy="4217442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>174698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114558</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AC88E-A15A-4C71-1046-60D2216B8108}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381001" y="6435798"/>
-          <a:ext cx="5353049" cy="1044760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
@@ -4747,9 +4609,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4861,7 +4723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4917,7 +4779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4973,7 +4835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -5029,7 +4891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5085,7 +4947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -5141,7 +5003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -5197,7 +5059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5253,7 +5115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5309,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>78</v>
       </c>
@@ -5365,7 +5227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -5421,7 +5283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -5477,7 +5339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5533,7 +5395,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5589,7 +5451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -5645,7 +5507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -5701,7 +5563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -5757,7 +5619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -5813,7 +5675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -5869,7 +5731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -5925,7 +5787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -5981,7 +5843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -6037,7 +5899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -6093,7 +5955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -6149,7 +6011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -6205,7 +6067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -6261,7 +6123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -6317,7 +6179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -6373,7 +6235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -6429,7 +6291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -6485,7 +6347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -6541,7 +6403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -6597,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -6653,7 +6515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>199</v>
       </c>
@@ -6709,7 +6571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -6765,7 +6627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -6821,7 +6683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>215</v>
       </c>
@@ -6877,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>219</v>
       </c>
@@ -6933,7 +6795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -6989,7 +6851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>229</v>
       </c>
@@ -7045,7 +6907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>234</v>
       </c>
@@ -7101,7 +6963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -7157,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>242</v>
       </c>
@@ -7213,7 +7075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -7269,7 +7131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>253</v>
       </c>
@@ -7325,7 +7187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>255</v>
       </c>
@@ -7381,7 +7243,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>259</v>
       </c>
@@ -7437,7 +7299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>263</v>
       </c>
@@ -7493,7 +7355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -7549,7 +7411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -7605,7 +7467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -7661,7 +7523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>279</v>
       </c>
@@ -7717,7 +7579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>283</v>
       </c>
@@ -7773,7 +7635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -7829,7 +7691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>292</v>
       </c>
@@ -7885,7 +7747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>297</v>
       </c>
@@ -7941,7 +7803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>302</v>
       </c>
@@ -7997,7 +7859,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>307</v>
       </c>
@@ -8053,7 +7915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -8109,7 +7971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>317</v>
       </c>
@@ -8165,7 +8027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>321</v>
       </c>
@@ -8221,7 +8083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>325</v>
       </c>
@@ -8277,7 +8139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>329</v>
       </c>
@@ -8333,7 +8195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>334</v>
       </c>
@@ -8389,7 +8251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>337</v>
       </c>
@@ -8445,7 +8307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>343</v>
       </c>
@@ -8501,7 +8363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>347</v>
       </c>
@@ -8557,7 +8419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>351</v>
       </c>
@@ -8613,7 +8475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>355</v>
       </c>
@@ -8669,7 +8531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>360</v>
       </c>
@@ -8725,7 +8587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>363</v>
       </c>
@@ -8781,7 +8643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>366</v>
       </c>
@@ -8837,7 +8699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>368</v>
       </c>
@@ -8893,7 +8755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>371</v>
       </c>
@@ -8949,7 +8811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>373</v>
       </c>
@@ -9005,7 +8867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -9061,7 +8923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>380</v>
       </c>
@@ -9117,7 +8979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>384</v>
       </c>
@@ -9173,7 +9035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>390</v>
       </c>
@@ -9229,7 +9091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>392</v>
       </c>
@@ -9285,7 +9147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>396</v>
       </c>
@@ -9341,7 +9203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>401</v>
       </c>
@@ -9397,7 +9259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>406</v>
       </c>
@@ -9453,7 +9315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>409</v>
       </c>
@@ -9509,7 +9371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>413</v>
       </c>
@@ -9565,7 +9427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>416</v>
       </c>
@@ -9621,7 +9483,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>420</v>
       </c>
@@ -9677,7 +9539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>424</v>
       </c>
@@ -9733,7 +9595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>427</v>
       </c>
@@ -9789,7 +9651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>429</v>
       </c>
@@ -9845,7 +9707,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>433</v>
       </c>
@@ -9901,7 +9763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>435</v>
       </c>
@@ -9957,7 +9819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>438</v>
       </c>
@@ -10013,7 +9875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>443</v>
       </c>
@@ -10069,7 +9931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>445</v>
       </c>
@@ -10125,7 +9987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>448</v>
       </c>
@@ -10181,7 +10043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>452</v>
       </c>
@@ -10237,7 +10099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>455</v>
       </c>
@@ -10293,7 +10155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>461</v>
       </c>
@@ -10349,7 +10211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>465</v>
       </c>
@@ -10405,7 +10267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>468</v>
       </c>
@@ -10461,7 +10323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>472</v>
       </c>
@@ -10517,7 +10379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>476</v>
       </c>
@@ -10573,7 +10435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>480</v>
       </c>
@@ -10629,7 +10491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>482</v>
       </c>
@@ -10685,7 +10547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>485</v>
       </c>
@@ -10741,7 +10603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>489</v>
       </c>
@@ -10797,7 +10659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>494</v>
       </c>
@@ -10853,7 +10715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>496</v>
       </c>
@@ -10909,7 +10771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>499</v>
       </c>
@@ -10965,7 +10827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>502</v>
       </c>
@@ -11021,7 +10883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>506</v>
       </c>
@@ -11077,7 +10939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>509</v>
       </c>
@@ -11133,7 +10995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>511</v>
       </c>
@@ -11189,7 +11051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>514</v>
       </c>
@@ -11245,7 +11107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>519</v>
       </c>
@@ -11301,7 +11163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>522</v>
       </c>
@@ -11357,7 +11219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>527</v>
       </c>
@@ -11413,7 +11275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>534</v>
       </c>
@@ -11469,7 +11331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>536</v>
       </c>
@@ -11525,7 +11387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>541</v>
       </c>
@@ -11581,7 +11443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>545</v>
       </c>
@@ -11637,7 +11499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>546</v>
       </c>
@@ -11693,7 +11555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>549</v>
       </c>
@@ -11749,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>553</v>
       </c>
@@ -11805,7 +11667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>558</v>
       </c>
@@ -11861,7 +11723,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>561</v>
       </c>
@@ -11917,7 +11779,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>565</v>
       </c>
@@ -11973,7 +11835,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>570</v>
       </c>
@@ -12029,7 +11891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>574</v>
       </c>
@@ -12085,7 +11947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>577</v>
       </c>
@@ -12141,7 +12003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>581</v>
       </c>
@@ -12197,7 +12059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>587</v>
       </c>
@@ -12253,7 +12115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>589</v>
       </c>
@@ -12309,7 +12171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>594</v>
       </c>
@@ -12365,7 +12227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>596</v>
       </c>
@@ -12421,7 +12283,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>598</v>
       </c>
@@ -12477,7 +12339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>603</v>
       </c>
@@ -12533,7 +12395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>606</v>
       </c>
@@ -12589,7 +12451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>609</v>
       </c>
@@ -12645,7 +12507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>611</v>
       </c>
@@ -12701,7 +12563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>616</v>
       </c>
@@ -12757,7 +12619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>620</v>
       </c>
@@ -12813,7 +12675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>622</v>
       </c>
@@ -12869,7 +12731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>625</v>
       </c>
@@ -12925,7 +12787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>628</v>
       </c>
@@ -12981,7 +12843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>632</v>
       </c>
@@ -13037,7 +12899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>636</v>
       </c>
@@ -13093,7 +12955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>639</v>
       </c>
@@ -13149,7 +13011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>643</v>
       </c>
@@ -13205,7 +13067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>647</v>
       </c>
@@ -13261,7 +13123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>650</v>
       </c>
@@ -13317,7 +13179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>652</v>
       </c>
@@ -13373,7 +13235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>656</v>
       </c>
@@ -13429,7 +13291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>659</v>
       </c>
@@ -13485,7 +13347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>661</v>
       </c>
@@ -13541,7 +13403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>663</v>
       </c>
@@ -13597,7 +13459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>665</v>
       </c>
@@ -13653,7 +13515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>667</v>
       </c>
@@ -13709,7 +13571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>670</v>
       </c>
@@ -13765,7 +13627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>674</v>
       </c>
@@ -13821,7 +13683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>678</v>
       </c>
@@ -13877,7 +13739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>680</v>
       </c>
@@ -13933,7 +13795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>681</v>
       </c>
@@ -13989,7 +13851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>684</v>
       </c>
@@ -14045,7 +13907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>688</v>
       </c>
@@ -14101,7 +13963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>691</v>
       </c>
@@ -14157,7 +14019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>692</v>
       </c>
@@ -14213,7 +14075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>695</v>
       </c>
@@ -14269,7 +14131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>698</v>
       </c>
@@ -14325,7 +14187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>702</v>
       </c>
@@ -14381,7 +14243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>705</v>
       </c>
@@ -14437,7 +14299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>707</v>
       </c>
@@ -14493,7 +14355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>710</v>
       </c>
@@ -14549,7 +14411,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>712</v>
       </c>
@@ -14605,7 +14467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>716</v>
       </c>
@@ -14661,7 +14523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>719</v>
       </c>
@@ -14717,7 +14579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>722</v>
       </c>
@@ -14773,7 +14635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>726</v>
       </c>
@@ -14829,7 +14691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>730</v>
       </c>
@@ -14885,7 +14747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>733</v>
       </c>
@@ -14941,7 +14803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>737</v>
       </c>
@@ -14997,7 +14859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>740</v>
       </c>
@@ -15053,7 +14915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>743</v>
       </c>
@@ -15109,7 +14971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>746</v>
       </c>
@@ -15165,7 +15027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>748</v>
       </c>
@@ -15221,7 +15083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>750</v>
       </c>
@@ -15277,7 +15139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>754</v>
       </c>
@@ -15333,7 +15195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>759</v>
       </c>
@@ -15389,7 +15251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>761</v>
       </c>
@@ -15445,7 +15307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>763</v>
       </c>
@@ -15501,7 +15363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>767</v>
       </c>
@@ -15557,7 +15419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>772</v>
       </c>
@@ -15613,7 +15475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>774</v>
       </c>
@@ -15669,7 +15531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>777</v>
       </c>
@@ -15725,7 +15587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>778</v>
       </c>
@@ -15781,7 +15643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>781</v>
       </c>
@@ -15837,7 +15699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>785</v>
       </c>
@@ -15893,7 +15755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>789</v>
       </c>
@@ -15949,7 +15811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>791</v>
       </c>
@@ -16005,7 +15867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>793</v>
       </c>
@@ -16061,7 +15923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>795</v>
       </c>
@@ -16117,7 +15979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>797</v>
       </c>
@@ -16173,7 +16035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>799</v>
       </c>
@@ -16229,7 +16091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>803</v>
       </c>
@@ -16285,7 +16147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>806</v>
       </c>
@@ -16341,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>811</v>
       </c>
@@ -16397,7 +16259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>815</v>
       </c>
@@ -16453,7 +16315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>817</v>
       </c>
@@ -16509,7 +16371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>820</v>
       </c>
@@ -16565,7 +16427,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>821</v>
       </c>
@@ -16621,7 +16483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>824</v>
       </c>
@@ -16677,7 +16539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>827</v>
       </c>
@@ -16733,7 +16595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>828</v>
       </c>
@@ -16789,7 +16651,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>829</v>
       </c>
@@ -16845,7 +16707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>832</v>
       </c>
@@ -16901,7 +16763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>836</v>
       </c>
@@ -16957,7 +16819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>838</v>
       </c>
@@ -17013,7 +16875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>841</v>
       </c>
@@ -17069,7 +16931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>843</v>
       </c>
@@ -17125,7 +16987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>844</v>
       </c>
@@ -17181,7 +17043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>846</v>
       </c>
@@ -17237,7 +17099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>848</v>
       </c>
@@ -17293,7 +17155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>851</v>
       </c>
@@ -17349,7 +17211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>853</v>
       </c>
@@ -17405,7 +17267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>854</v>
       </c>
@@ -17461,7 +17323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>857</v>
       </c>
@@ -17517,7 +17379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>861</v>
       </c>
@@ -17573,7 +17435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>862</v>
       </c>
@@ -17629,7 +17491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>863</v>
       </c>
@@ -17685,7 +17547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>867</v>
       </c>
@@ -17741,7 +17603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>870</v>
       </c>
@@ -17797,7 +17659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>872</v>
       </c>
@@ -17853,7 +17715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>876</v>
       </c>
@@ -17909,7 +17771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>879</v>
       </c>
@@ -17965,7 +17827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>882</v>
       </c>
@@ -18021,7 +17883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>883</v>
       </c>
@@ -18077,7 +17939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>885</v>
       </c>
@@ -18133,7 +17995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>887</v>
       </c>
@@ -18189,7 +18051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>889</v>
       </c>
@@ -18245,7 +18107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>891</v>
       </c>
@@ -18301,7 +18163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>895</v>
       </c>
@@ -18357,7 +18219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>897</v>
       </c>
@@ -18413,7 +18275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>898</v>
       </c>
@@ -18469,7 +18331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>899</v>
       </c>
@@ -18525,7 +18387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>901</v>
       </c>
@@ -18581,7 +18443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>904</v>
       </c>
@@ -18637,7 +18499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>906</v>
       </c>
@@ -18693,7 +18555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>907</v>
       </c>
@@ -18749,7 +18611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>909</v>
       </c>
@@ -18805,7 +18667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>912</v>
       </c>
@@ -18861,7 +18723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>915</v>
       </c>
@@ -18917,7 +18779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>916</v>
       </c>
@@ -18973,7 +18835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>918</v>
       </c>
@@ -19029,7 +18891,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>920</v>
       </c>
@@ -19085,7 +18947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>922</v>
       </c>
@@ -19141,7 +19003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>925</v>
       </c>
@@ -19197,7 +19059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>930</v>
       </c>
@@ -19253,7 +19115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>932</v>
       </c>
@@ -19309,7 +19171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>935</v>
       </c>
@@ -19365,7 +19227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>936</v>
       </c>
@@ -19421,7 +19283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>939</v>
       </c>
@@ -19477,7 +19339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>942</v>
       </c>
@@ -19533,7 +19395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>943</v>
       </c>
@@ -19589,7 +19451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>945</v>
       </c>
@@ -19645,7 +19507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>948</v>
       </c>
@@ -19701,7 +19563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>952</v>
       </c>
@@ -19757,7 +19619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>954</v>
       </c>
@@ -19813,7 +19675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>956</v>
       </c>
@@ -19869,7 +19731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>958</v>
       </c>
@@ -19925,7 +19787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>962</v>
       </c>
@@ -19981,7 +19843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>964</v>
       </c>
@@ -20037,7 +19899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>965</v>
       </c>
@@ -20093,7 +19955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>966</v>
       </c>
@@ -20149,7 +20011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>967</v>
       </c>
@@ -20205,7 +20067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>968</v>
       </c>
@@ -20261,7 +20123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>970</v>
       </c>
@@ -20317,7 +20179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>973</v>
       </c>
@@ -20373,7 +20235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>977</v>
       </c>
@@ -20429,7 +20291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>979</v>
       </c>
@@ -20485,7 +20347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>980</v>
       </c>
@@ -20541,7 +20403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>984</v>
       </c>
@@ -20597,7 +20459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>986</v>
       </c>
@@ -20653,7 +20515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>989</v>
       </c>
@@ -20709,7 +20571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>991</v>
       </c>
@@ -20765,7 +20627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>994</v>
       </c>
@@ -20821,7 +20683,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>995</v>
       </c>
@@ -20877,7 +20739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>997</v>
       </c>
@@ -20933,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>999</v>
       </c>
@@ -20989,7 +20851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1001</v>
       </c>
@@ -21045,7 +20907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1003</v>
       </c>
@@ -21101,7 +20963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1005</v>
       </c>
@@ -21157,7 +21019,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1007</v>
       </c>
@@ -21213,7 +21075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1010</v>
       </c>
@@ -21269,7 +21131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1011</v>
       </c>
@@ -21325,7 +21187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1013</v>
       </c>
@@ -21381,7 +21243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1016</v>
       </c>
@@ -21437,7 +21299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1017</v>
       </c>
@@ -21493,7 +21355,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1019</v>
       </c>
@@ -21549,7 +21411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1021</v>
       </c>
@@ -21605,7 +21467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1023</v>
       </c>
@@ -21661,7 +21523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1024</v>
       </c>
@@ -21717,7 +21579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1026</v>
       </c>
@@ -21773,7 +21635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1028</v>
       </c>
@@ -21829,7 +21691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1029</v>
       </c>
@@ -21885,7 +21747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1030</v>
       </c>
@@ -21941,7 +21803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1031</v>
       </c>
@@ -21997,7 +21859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1033</v>
       </c>
@@ -22053,7 +21915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1036</v>
       </c>
@@ -22109,7 +21971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1040</v>
       </c>
@@ -22165,7 +22027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1042</v>
       </c>
@@ -22221,7 +22083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1044</v>
       </c>
@@ -22277,7 +22139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1048</v>
       </c>
@@ -22333,7 +22195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1050</v>
       </c>
@@ -22389,7 +22251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1051</v>
       </c>
@@ -22445,7 +22307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1053</v>
       </c>
@@ -22501,7 +22363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1055</v>
       </c>
@@ -22557,7 +22419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1056</v>
       </c>
@@ -22613,7 +22475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1057</v>
       </c>
@@ -22669,7 +22531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1058</v>
       </c>
@@ -22725,7 +22587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1060</v>
       </c>
@@ -22781,7 +22643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1062</v>
       </c>
@@ -22837,7 +22699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1064</v>
       </c>
@@ -22893,7 +22755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1065</v>
       </c>
@@ -22949,7 +22811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1066</v>
       </c>
@@ -23005,7 +22867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1068</v>
       </c>
@@ -23061,7 +22923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1070</v>
       </c>
@@ -23117,7 +22979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1072</v>
       </c>
@@ -23173,7 +23035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1073</v>
       </c>
@@ -23229,7 +23091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1076</v>
       </c>
@@ -23285,7 +23147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1078</v>
       </c>
@@ -23341,7 +23203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1081</v>
       </c>
@@ -23397,7 +23259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>1082</v>
       </c>
@@ -23453,7 +23315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1084</v>
       </c>
@@ -23509,7 +23371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1086</v>
       </c>
@@ -23565,7 +23427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1087</v>
       </c>
@@ -23621,7 +23483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1088</v>
       </c>
@@ -23677,7 +23539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1089</v>
       </c>
@@ -23733,7 +23595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1091</v>
       </c>
@@ -23789,7 +23651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1094</v>
       </c>
@@ -23845,7 +23707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1096</v>
       </c>
@@ -23901,7 +23763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1097</v>
       </c>
@@ -23957,7 +23819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1100</v>
       </c>
@@ -24013,7 +23875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1101</v>
       </c>
@@ -24069,7 +23931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1103</v>
       </c>
@@ -24125,7 +23987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1106</v>
       </c>
@@ -24181,7 +24043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1108</v>
       </c>
@@ -24237,7 +24099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1110</v>
       </c>
@@ -24293,7 +24155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1113</v>
       </c>
@@ -24349,7 +24211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1114</v>
       </c>
@@ -24405,7 +24267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1115</v>
       </c>
@@ -24461,7 +24323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1118</v>
       </c>
@@ -24517,7 +24379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1120</v>
       </c>
@@ -24573,7 +24435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1122</v>
       </c>
@@ -24629,7 +24491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1124</v>
       </c>
@@ -24685,7 +24547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1127</v>
       </c>
@@ -24741,7 +24603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1128</v>
       </c>
@@ -24797,7 +24659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1131</v>
       </c>
@@ -24853,7 +24715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1133</v>
       </c>
@@ -24909,7 +24771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1134</v>
       </c>
@@ -24965,7 +24827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1136</v>
       </c>
@@ -25021,7 +24883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1138</v>
       </c>
@@ -25077,7 +24939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1139</v>
       </c>
@@ -25133,7 +24995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>1141</v>
       </c>
@@ -25189,7 +25051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>1142</v>
       </c>
@@ -25245,7 +25107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>1143</v>
       </c>
@@ -25301,7 +25163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>1144</v>
       </c>
@@ -25357,7 +25219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>1148</v>
       </c>
@@ -25413,7 +25275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>1150</v>
       </c>
@@ -25469,7 +25331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>1152</v>
       </c>
@@ -25525,7 +25387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1154</v>
       </c>
@@ -25581,7 +25443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>1155</v>
       </c>
@@ -25637,7 +25499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>1157</v>
       </c>
@@ -25693,7 +25555,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>1158</v>
       </c>
@@ -25749,7 +25611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1161</v>
       </c>
@@ -25805,7 +25667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>1162</v>
       </c>
@@ -25861,7 +25723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1164</v>
       </c>
@@ -25917,7 +25779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1166</v>
       </c>
@@ -25973,7 +25835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>1168</v>
       </c>
@@ -26029,7 +25891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1170</v>
       </c>
@@ -26085,7 +25947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>1171</v>
       </c>
@@ -26141,7 +26003,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1173</v>
       </c>
@@ -26197,7 +26059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>1174</v>
       </c>
@@ -26253,7 +26115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>1176</v>
       </c>
@@ -26309,7 +26171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>1177</v>
       </c>
@@ -26365,7 +26227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1180</v>
       </c>
@@ -26421,7 +26283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>1181</v>
       </c>
@@ -26477,7 +26339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>1182</v>
       </c>
@@ -26533,7 +26395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>1184</v>
       </c>
@@ -26589,7 +26451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>1185</v>
       </c>
@@ -26645,7 +26507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>1187</v>
       </c>
@@ -26701,7 +26563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>1190</v>
       </c>
@@ -26757,7 +26619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>1191</v>
       </c>
@@ -26813,7 +26675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>1193</v>
       </c>
@@ -26869,7 +26731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>1195</v>
       </c>
@@ -26925,7 +26787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>1196</v>
       </c>
@@ -26981,7 +26843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>1198</v>
       </c>
@@ -27037,7 +26899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1201</v>
       </c>
@@ -27093,7 +26955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>1202</v>
       </c>
@@ -27149,7 +27011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>1203</v>
       </c>
@@ -27209,19 +27071,4 @@
   <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54239C56-2BA4-4C35-950D-8035D05A20BD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>